--- a/natmiOut/OldD7/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>672.218903522974</v>
+        <v>5.018449</v>
       </c>
       <c r="H2">
-        <v>672.218903522974</v>
+        <v>15.055347</v>
       </c>
       <c r="I2">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="J2">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.50739660175048</v>
+        <v>3.05751</v>
       </c>
       <c r="N2">
-        <v>2.50739660175048</v>
+        <v>9.17253</v>
       </c>
       <c r="O2">
-        <v>0.2358833361247339</v>
+        <v>0.1256743542537804</v>
       </c>
       <c r="P2">
-        <v>0.2358833361247339</v>
+        <v>0.1256743542537804</v>
       </c>
       <c r="Q2">
-        <v>1685.519394325939</v>
+        <v>15.34395800199</v>
       </c>
       <c r="R2">
-        <v>1685.519394325939</v>
+        <v>138.09562201791</v>
       </c>
       <c r="S2">
-        <v>0.2313663076704098</v>
+        <v>0.0009069828581815567</v>
       </c>
       <c r="T2">
-        <v>0.2313663076704098</v>
+        <v>0.0009069828581815565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>672.218903522974</v>
+        <v>5.018449</v>
       </c>
       <c r="H3">
-        <v>672.218903522974</v>
+        <v>15.055347</v>
       </c>
       <c r="I3">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="J3">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.89979237539186</v>
+        <v>1.955912666666667</v>
       </c>
       <c r="N3">
-        <v>1.89979237539186</v>
+        <v>5.867738</v>
       </c>
       <c r="O3">
-        <v>0.1787229683325381</v>
+        <v>0.08039485115670036</v>
       </c>
       <c r="P3">
-        <v>0.1787229683325381</v>
+        <v>0.08039485115670036</v>
       </c>
       <c r="Q3">
-        <v>1277.076347507222</v>
+        <v>9.815647966120666</v>
       </c>
       <c r="R3">
-        <v>1277.076347507222</v>
+        <v>88.34083169508601</v>
       </c>
       <c r="S3">
-        <v>0.1753005276181485</v>
+        <v>0.0005802039112764451</v>
       </c>
       <c r="T3">
-        <v>0.1753005276181485</v>
+        <v>0.0005802039112764451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>672.218903522974</v>
+        <v>5.018449</v>
       </c>
       <c r="H4">
-        <v>672.218903522974</v>
+        <v>15.055347</v>
       </c>
       <c r="I4">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="J4">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.01188879443346</v>
+        <v>3.576906333333334</v>
       </c>
       <c r="N4">
-        <v>3.01188879443346</v>
+        <v>10.730719</v>
       </c>
       <c r="O4">
-        <v>0.283343439315376</v>
+        <v>0.1470233600766389</v>
       </c>
       <c r="P4">
-        <v>0.283343439315376</v>
+        <v>0.1470233600766389</v>
       </c>
       <c r="Q4">
-        <v>2024.648582927192</v>
+        <v>17.95052201161034</v>
       </c>
       <c r="R4">
-        <v>2024.648582927192</v>
+        <v>161.554698104493</v>
       </c>
       <c r="S4">
-        <v>0.2779175775365821</v>
+        <v>0.001061057111719791</v>
       </c>
       <c r="T4">
-        <v>0.2779175775365821</v>
+        <v>0.001061057111719791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>672.218903522974</v>
+        <v>5.018449</v>
       </c>
       <c r="H5">
-        <v>672.218903522974</v>
+        <v>15.055347</v>
       </c>
       <c r="I5">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="J5">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.21073882735759</v>
+        <v>15.738501</v>
       </c>
       <c r="N5">
-        <v>3.21073882735759</v>
+        <v>47.215503</v>
       </c>
       <c r="O5">
-        <v>0.302050256227352</v>
+        <v>0.6469074345128804</v>
       </c>
       <c r="P5">
-        <v>0.302050256227352</v>
+        <v>0.6469074345128804</v>
       </c>
       <c r="Q5">
-        <v>2158.319334024959</v>
+        <v>78.982864604949</v>
       </c>
       <c r="R5">
-        <v>2158.319334024959</v>
+        <v>710.845781444541</v>
       </c>
       <c r="S5">
-        <v>0.2962661698038273</v>
+        <v>0.004668684851553482</v>
       </c>
       <c r="T5">
-        <v>0.2962661698038273</v>
+        <v>0.004668684851553482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.75394989051289</v>
+        <v>675.4945473333333</v>
       </c>
       <c r="H6">
-        <v>1.75394989051289</v>
+        <v>2026.483642</v>
       </c>
       <c r="I6">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852961</v>
       </c>
       <c r="J6">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852962</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.50739660175048</v>
+        <v>3.05751</v>
       </c>
       <c r="N6">
-        <v>2.50739660175048</v>
+        <v>9.17253</v>
       </c>
       <c r="O6">
-        <v>0.2358833361247339</v>
+        <v>0.1256743542537804</v>
       </c>
       <c r="P6">
-        <v>0.2358833361247339</v>
+        <v>0.1256743542537804</v>
       </c>
       <c r="Q6">
-        <v>4.397847995112647</v>
+        <v>2065.33133341714</v>
       </c>
       <c r="R6">
-        <v>4.397847995112647</v>
+        <v>18587.98200075426</v>
       </c>
       <c r="S6">
-        <v>0.000603679705941233</v>
+        <v>0.1220819371137265</v>
       </c>
       <c r="T6">
-        <v>0.000603679705941233</v>
+        <v>0.1220819371137265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.75394989051289</v>
+        <v>675.4945473333333</v>
       </c>
       <c r="H7">
-        <v>1.75394989051289</v>
+        <v>2026.483642</v>
       </c>
       <c r="I7">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852961</v>
       </c>
       <c r="J7">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.89979237539186</v>
+        <v>1.955912666666667</v>
       </c>
       <c r="N7">
-        <v>1.89979237539186</v>
+        <v>5.867738</v>
       </c>
       <c r="O7">
-        <v>0.1787229683325381</v>
+        <v>0.08039485115670036</v>
       </c>
       <c r="P7">
-        <v>0.1787229683325381</v>
+        <v>0.08039485115670036</v>
       </c>
       <c r="Q7">
-        <v>3.332140628815776</v>
+        <v>1321.208341393533</v>
       </c>
       <c r="R7">
-        <v>3.332140628815776</v>
+        <v>11890.8750725418</v>
       </c>
       <c r="S7">
-        <v>0.0004573931789351939</v>
+        <v>0.07809675427780809</v>
       </c>
       <c r="T7">
-        <v>0.0004573931789351939</v>
+        <v>0.0780967542778081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.75394989051289</v>
+        <v>675.4945473333333</v>
       </c>
       <c r="H8">
-        <v>1.75394989051289</v>
+        <v>2026.483642</v>
       </c>
       <c r="I8">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852961</v>
       </c>
       <c r="J8">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852962</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.01188879443346</v>
+        <v>3.576906333333334</v>
       </c>
       <c r="N8">
-        <v>3.01188879443346</v>
+        <v>10.730719</v>
       </c>
       <c r="O8">
-        <v>0.283343439315376</v>
+        <v>0.1470233600766389</v>
       </c>
       <c r="P8">
-        <v>0.283343439315376</v>
+        <v>0.1470233600766389</v>
       </c>
       <c r="Q8">
-        <v>5.282702021233567</v>
+        <v>2416.180724488733</v>
       </c>
       <c r="R8">
-        <v>5.282702021233567</v>
+        <v>21745.6265203986</v>
       </c>
       <c r="S8">
-        <v>0.0007251410249507161</v>
+        <v>0.142820678934064</v>
       </c>
       <c r="T8">
-        <v>0.0007251410249507161</v>
+        <v>0.142820678934064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.75394989051289</v>
+        <v>675.4945473333333</v>
       </c>
       <c r="H9">
-        <v>1.75394989051289</v>
+        <v>2026.483642</v>
       </c>
       <c r="I9">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852961</v>
       </c>
       <c r="J9">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852962</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.21073882735759</v>
+        <v>15.738501</v>
       </c>
       <c r="N9">
-        <v>3.21073882735759</v>
+        <v>47.215503</v>
       </c>
       <c r="O9">
-        <v>0.302050256227352</v>
+        <v>0.6469074345128804</v>
       </c>
       <c r="P9">
-        <v>0.302050256227352</v>
+        <v>0.6469074345128804</v>
       </c>
       <c r="Q9">
-        <v>5.63147501470933</v>
+        <v>10631.27160870021</v>
       </c>
       <c r="R9">
-        <v>5.63147501470933</v>
+        <v>95681.44447830193</v>
       </c>
       <c r="S9">
-        <v>0.0007730160716498458</v>
+        <v>0.6284155045596975</v>
       </c>
       <c r="T9">
-        <v>0.0007730160716498458</v>
+        <v>0.6284155045596976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.3699657967845</v>
+        <v>1.832754333333333</v>
       </c>
       <c r="H10">
-        <v>11.3699657967845</v>
+        <v>5.498263</v>
       </c>
       <c r="I10">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="J10">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.50739660175048</v>
+        <v>3.05751</v>
       </c>
       <c r="N10">
-        <v>2.50739660175048</v>
+        <v>9.17253</v>
       </c>
       <c r="O10">
-        <v>0.2358833361247339</v>
+        <v>0.1256743542537804</v>
       </c>
       <c r="P10">
-        <v>0.2358833361247339</v>
+        <v>0.1256743542537804</v>
       </c>
       <c r="Q10">
-        <v>28.50901360087665</v>
+        <v>5.60366470171</v>
       </c>
       <c r="R10">
-        <v>28.50901360087665</v>
+        <v>50.43298231539</v>
       </c>
       <c r="S10">
-        <v>0.003913348748382787</v>
+        <v>0.0003312331685728598</v>
       </c>
       <c r="T10">
-        <v>0.003913348748382787</v>
+        <v>0.0003312331685728598</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.3699657967845</v>
+        <v>1.832754333333333</v>
       </c>
       <c r="H11">
-        <v>11.3699657967845</v>
+        <v>5.498263</v>
       </c>
       <c r="I11">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="J11">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.89979237539186</v>
+        <v>1.955912666666667</v>
       </c>
       <c r="N11">
-        <v>1.89979237539186</v>
+        <v>5.867738</v>
       </c>
       <c r="O11">
-        <v>0.1787229683325381</v>
+        <v>0.08039485115670036</v>
       </c>
       <c r="P11">
-        <v>0.1787229683325381</v>
+        <v>0.08039485115670036</v>
       </c>
       <c r="Q11">
-        <v>21.60057432919743</v>
+        <v>3.584707415454889</v>
       </c>
       <c r="R11">
-        <v>21.60057432919743</v>
+        <v>32.262366739094</v>
       </c>
       <c r="S11">
-        <v>0.002965047535454359</v>
+        <v>0.0002118924059223982</v>
       </c>
       <c r="T11">
-        <v>0.002965047535454359</v>
+        <v>0.0002118924059223982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.3699657967845</v>
+        <v>1.832754333333333</v>
       </c>
       <c r="H12">
-        <v>11.3699657967845</v>
+        <v>5.498263</v>
       </c>
       <c r="I12">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="J12">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.01188879443346</v>
+        <v>3.576906333333334</v>
       </c>
       <c r="N12">
-        <v>3.01188879443346</v>
+        <v>10.730719</v>
       </c>
       <c r="O12">
-        <v>0.283343439315376</v>
+        <v>0.1470233600766389</v>
       </c>
       <c r="P12">
-        <v>0.283343439315376</v>
+        <v>0.1470233600766389</v>
       </c>
       <c r="Q12">
-        <v>34.24507257642694</v>
+        <v>6.555590582344111</v>
       </c>
       <c r="R12">
-        <v>34.24507257642694</v>
+        <v>59.000315241097</v>
       </c>
       <c r="S12">
-        <v>0.00470072075384317</v>
+        <v>0.0003875016004782748</v>
       </c>
       <c r="T12">
-        <v>0.00470072075384317</v>
+        <v>0.0003875016004782748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.832754333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.498263</v>
+      </c>
+      <c r="I13">
+        <v>0.002635646473297045</v>
+      </c>
+      <c r="J13">
+        <v>0.002635646473297045</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.738501</v>
+      </c>
+      <c r="N13">
+        <v>47.215503</v>
+      </c>
+      <c r="O13">
+        <v>0.6469074345128804</v>
+      </c>
+      <c r="P13">
+        <v>0.6469074345128804</v>
+      </c>
+      <c r="Q13">
+        <v>28.844805907921</v>
+      </c>
+      <c r="R13">
+        <v>259.603253171289</v>
+      </c>
+      <c r="S13">
+        <v>0.001705019298323512</v>
+      </c>
+      <c r="T13">
+        <v>0.001705019298323512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13.02608766666667</v>
+      </c>
+      <c r="H14">
+        <v>39.078263</v>
+      </c>
+      <c r="I14">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="J14">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.05751</v>
+      </c>
+      <c r="N14">
+        <v>9.17253</v>
+      </c>
+      <c r="O14">
+        <v>0.1256743542537804</v>
+      </c>
+      <c r="P14">
+        <v>0.1256743542537804</v>
+      </c>
+      <c r="Q14">
+        <v>39.82739330171</v>
+      </c>
+      <c r="R14">
+        <v>358.44653971539</v>
+      </c>
+      <c r="S14">
+        <v>0.002354201113299519</v>
+      </c>
+      <c r="T14">
+        <v>0.002354201113299518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13.02608766666667</v>
+      </c>
+      <c r="H15">
+        <v>39.078263</v>
+      </c>
+      <c r="I15">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="J15">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.955912666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.867738</v>
+      </c>
+      <c r="O15">
+        <v>0.08039485115670036</v>
+      </c>
+      <c r="P15">
+        <v>0.08039485115670036</v>
+      </c>
+      <c r="Q15">
+        <v>25.47788986434378</v>
+      </c>
+      <c r="R15">
+        <v>229.301008779094</v>
+      </c>
+      <c r="S15">
+        <v>0.001506000561693436</v>
+      </c>
+      <c r="T15">
+        <v>0.001506000561693436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.3699657967845</v>
-      </c>
-      <c r="H13">
-        <v>11.3699657967845</v>
-      </c>
-      <c r="I13">
-        <v>0.01659018738955527</v>
-      </c>
-      <c r="J13">
-        <v>0.01659018738955527</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.21073882735759</v>
-      </c>
-      <c r="N13">
-        <v>3.21073882735759</v>
-      </c>
-      <c r="O13">
-        <v>0.302050256227352</v>
-      </c>
-      <c r="P13">
-        <v>0.302050256227352</v>
-      </c>
-      <c r="Q13">
-        <v>36.50599064946378</v>
-      </c>
-      <c r="R13">
-        <v>36.50599064946378</v>
-      </c>
-      <c r="S13">
-        <v>0.005011070351874954</v>
-      </c>
-      <c r="T13">
-        <v>0.005011070351874954</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>13.02608766666667</v>
+      </c>
+      <c r="H16">
+        <v>39.078263</v>
+      </c>
+      <c r="I16">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="J16">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.576906333333334</v>
+      </c>
+      <c r="N16">
+        <v>10.730719</v>
+      </c>
+      <c r="O16">
+        <v>0.1470233600766389</v>
+      </c>
+      <c r="P16">
+        <v>0.1470233600766389</v>
+      </c>
+      <c r="Q16">
+        <v>46.59309547345523</v>
+      </c>
+      <c r="R16">
+        <v>419.337859261097</v>
+      </c>
+      <c r="S16">
+        <v>0.00275412243037682</v>
+      </c>
+      <c r="T16">
+        <v>0.00275412243037682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.02608766666667</v>
+      </c>
+      <c r="H17">
+        <v>39.078263</v>
+      </c>
+      <c r="I17">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="J17">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.738501</v>
+      </c>
+      <c r="N17">
+        <v>47.215503</v>
+      </c>
+      <c r="O17">
+        <v>0.6469074345128804</v>
+      </c>
+      <c r="P17">
+        <v>0.6469074345128804</v>
+      </c>
+      <c r="Q17">
+        <v>205.011093767921</v>
+      </c>
+      <c r="R17">
+        <v>1845.099843911289</v>
+      </c>
+      <c r="S17">
+        <v>0.01211822580330582</v>
+      </c>
+      <c r="T17">
+        <v>0.01211822580330582</v>
       </c>
     </row>
   </sheetData>
